--- a/Exams/Exam-02/CheckList.xlsx
+++ b/Exams/Exam-02/CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCesarRoblesUrib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\BackDevelopment\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E7FBC-1FE4-49DC-AD9E-C483865497C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A27AF3-59AC-47C2-BD9D-FCD72C933F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankApp" sheetId="6" r:id="rId1"/>
@@ -372,13 +372,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -387,7 +387,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{9C3705E6-1FC9-442C-A2A6-15B84B71AB76}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -448,13 +448,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="9"/>
       </font>
     </dxf>
@@ -462,7 +455,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="9"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -762,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1477,18 +1470,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B19">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="notEqual">
       <formula>"Si"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
